--- a/html5up-hyperspace/data/expectations_table.xlsx
+++ b/html5up-hyperspace/data/expectations_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE72 2QE\Dropbox\BernardoOliYuriy\Bernardo\Paper_IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JakeLyons/Documents/Website/pmi-data/html5up-hyperspace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2710E3A-45C6-418E-AFCA-F6E6A9B1AADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853F632-C230-4E4E-997B-59C09C3AE91A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="15" windowWidth="13050" windowHeight="14940" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15720" windowHeight="16920" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>April 2018</t>
   </si>
@@ -71,13 +71,22 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Inflation expectations</t>
-  </si>
-  <si>
-    <t>Note:  We exclude responses of firms' managers that are greater than 15 percent or less than -2 percent.</t>
-  </si>
-  <si>
-    <t>Mean 12-months-ahead inflation expectations</t>
+    <t>Firm Inflation Expectations</t>
+  </si>
+  <si>
+    <t>Panel A: 1-year-ahead inflation forecasts, percentage points</t>
+  </si>
+  <si>
+    <t>Panel B: 5-year-ahead inflation forecasts, percentage points</t>
+  </si>
+  <si>
+    <t>Panel C: 1-year inflation nowcasts/backcasts, percentage points</t>
+  </si>
+  <si>
+    <t>Note: We exclude responses of firms' managers that are greater than 15 percent or less than -2 percent.</t>
+  </si>
+  <si>
+    <t>Panel D: Inflation over the next year will exceed 5%</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,25 +442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52DF7-BC99-4773-81A8-6D55A27DE414}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -459,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -481,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -492,7 +501,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -503,7 +512,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -514,7 +523,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -525,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -536,7 +545,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -547,7 +556,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -558,7 +567,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -569,9 +578,101 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/html5up-hyperspace/data/expectations_table.xlsx
+++ b/html5up-hyperspace/data/expectations_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JakeLyons/Documents/Website/pmi-data/html5up-hyperspace/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE72 2QE\Desktop\Website\pmi-data\html5up-hyperspace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853F632-C230-4E4E-997B-59C09C3AE91A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C27D1-5480-45CA-AE98-0AE044B6E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15720" windowHeight="16920" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
+    <workbookView xWindow="1185" yWindow="195" windowWidth="14205" windowHeight="15540" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>April 2018</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Panel D: Inflation over the next year will exceed 5%</t>
+  </si>
+  <si>
+    <t>October 2020</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>April 2021</t>
   </si>
 </sst>
 </file>
@@ -442,25 +451,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52DF7-BC99-4773-81A8-6D55A27DE414}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -468,40 +477,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C4" s="1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -509,21 +518,21 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C8" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -531,10 +540,10 @@
         <v>2.4</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -542,32 +551,32 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="C12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -578,100 +587,155 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B18" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="C19" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B22" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B24" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B26" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B27" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>

--- a/html5up-hyperspace/data/expectations_table.xlsx
+++ b/html5up-hyperspace/data/expectations_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE72 2QE\Desktop\Website\pmi-data\html5up-hyperspace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C27D1-5480-45CA-AE98-0AE044B6E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C11BAD1-78D9-4F5D-B62B-BEFB7777BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="195" windowWidth="14205" windowHeight="15540" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
+    <workbookView xWindow="14160" yWindow="60" windowWidth="14205" windowHeight="15540" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>April 2018</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>April 2021</t>
+  </si>
+  <si>
+    <t>July 2021</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52DF7-BC99-4773-81A8-6D55A27DE414}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
         <v>3.6</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,7 +499,7 @@
         <v>2.9</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C9" s="1">
         <v>0.5</v>
@@ -551,7 +554,7 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +565,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>1.5</v>
@@ -603,10 +606,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C15" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,120 +625,142 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="C19" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="C23" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C24" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
-        <v>25.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>24.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="C27" s="1">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>18.8</v>
+        <v>25.2</v>
       </c>
       <c r="C28" s="1">
-        <v>25.9</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
     </row>

--- a/html5up-hyperspace/data/expectations_table.xlsx
+++ b/html5up-hyperspace/data/expectations_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE72 2QE\Desktop\Website\pmi-data\html5up-hyperspace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C11BAD1-78D9-4F5D-B62B-BEFB7777BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CB0D1A-6FF4-4373-944B-952632D2E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="60" windowWidth="14205" windowHeight="15540" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
+    <workbookView xWindow="1620" yWindow="1200" windowWidth="13785" windowHeight="11385" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>April 2018</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>July 2021</t>
+  </si>
+  <si>
+    <t>October 2021</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52DF7-BC99-4773-81A8-6D55A27DE414}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1.3</v>
@@ -636,131 +639,153 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.2000000000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="C20" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="C23" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="C25" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C26" s="1">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>25.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C28" s="1">
-        <v>24.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>18.8</v>
+        <v>25.3</v>
       </c>
       <c r="C30" s="1">
-        <v>26</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>

--- a/html5up-hyperspace/data/expectations_table.xlsx
+++ b/html5up-hyperspace/data/expectations_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE72 2QE\Desktop\Website\pmi-data\html5up-hyperspace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CB0D1A-6FF4-4373-944B-952632D2E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917D8E4-F0A8-4C87-9622-3A056AB0178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1200" windowWidth="13785" windowHeight="11385" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
+    <workbookView xWindow="0" yWindow="1005" windowWidth="15675" windowHeight="13065" xr2:uid="{46948B32-2852-437C-B8E6-52BB2604B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>April 2018</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>October 2021</t>
+  </si>
+  <si>
+    <t>January 2022</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52DF7-BC99-4773-81A8-6D55A27DE414}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C8" s="1">
         <v>1.1000000000000001</v>
@@ -557,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C11" s="1">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +637,7 @@
         <v>4.7</v>
       </c>
       <c r="C17" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,142 +653,164 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="C21" s="1">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="C23" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C27" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1">
-        <v>25.3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>23.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>9.4</v>
+        <v>24.8</v>
       </c>
       <c r="C31" s="1">
-        <v>14.4</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="1">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
